--- a/storage/excel/parameters.xlsx
+++ b/storage/excel/parameters.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17301"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kittikun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\survey\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ตารางกำลังไฟฟ้า" sheetId="1" r:id="rId1"/>
@@ -1306,14 +1306,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1321,7 +1321,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1516,9 +1516,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1561,9 +1561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1623,8 +1620,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,42 +1636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,10 +1659,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1711,7 +1717,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2033,20 +2039,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2060,56 +2066,56 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="7"/>
@@ -2120,56 +2126,56 @@
       <c r="G7" s="7"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="45"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="60">
         <v>1</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -2183,10 +2189,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="47"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -2203,10 +2209,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="47"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
@@ -2221,10 +2227,10 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="47"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
@@ -2239,13 +2245,13 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="47"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="50"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -2259,13 +2265,13 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="47"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="50"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -2279,17 +2285,17 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49">
+      <c r="A16" s="61"/>
+      <c r="B16" s="64">
         <v>2</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -2303,10 +2309,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="47"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -2323,10 +2329,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
@@ -2341,10 +2347,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="47"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
@@ -2359,13 +2365,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="47"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -2379,13 +2385,13 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -2399,16 +2405,16 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="60">
         <v>3</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -2417,7 +2423,7 @@
       <c r="F22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>400</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -2425,17 +2431,17 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>700</v>
       </c>
       <c r="H23" s="14" t="s">
@@ -2443,17 +2449,17 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="47"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>1300</v>
       </c>
       <c r="H24" s="14" t="s">
@@ -2461,10 +2467,10 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="47"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -2473,7 +2479,7 @@
       <c r="F25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>400</v>
       </c>
       <c r="H25" s="14" t="s">
@@ -2481,17 +2487,17 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="47"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>700</v>
       </c>
       <c r="H26" s="14" t="s">
@@ -2499,10 +2505,10 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="47"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="53" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="59" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -2511,7 +2517,7 @@
       <c r="F27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>700</v>
       </c>
       <c r="H27" s="14" t="s">
@@ -2519,17 +2525,17 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="47"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="54"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>800</v>
       </c>
       <c r="H28" s="14" t="s">
@@ -2537,23 +2543,23 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49">
+      <c r="A29" s="61"/>
+      <c r="B29" s="64">
         <v>4</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>1500</v>
       </c>
       <c r="H29" s="14" t="s">
@@ -2561,19 +2567,19 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="15" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>1800</v>
       </c>
       <c r="H30" s="14" t="s">
@@ -2581,19 +2587,19 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="47"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>2000</v>
       </c>
       <c r="H31" s="14" t="s">
@@ -2601,7 +2607,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="47"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="16">
         <v>5</v>
       </c>
@@ -2611,13 +2617,13 @@
       <c r="D32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>800</v>
       </c>
       <c r="H32" s="14" t="s">
@@ -2625,7 +2631,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="47"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="16">
         <v>6</v>
       </c>
@@ -2635,13 +2641,13 @@
       <c r="D33" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <v>1200</v>
       </c>
       <c r="H33" s="14" t="s">
@@ -2649,14 +2655,14 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="47"/>
-      <c r="B34" s="51">
+      <c r="A34" s="61"/>
+      <c r="B34" s="60">
         <v>7</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -2665,7 +2671,7 @@
       <c r="F34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>600</v>
       </c>
       <c r="H34" s="14" t="s">
@@ -2673,17 +2679,17 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="47"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="23">
         <v>700</v>
       </c>
       <c r="H35" s="14" t="s">
@@ -2691,7 +2697,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="47"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="16">
         <v>8</v>
       </c>
@@ -2701,13 +2707,13 @@
       <c r="D36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>1500</v>
       </c>
       <c r="H36" s="14" t="s">
@@ -2715,7 +2721,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="47"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="16">
         <v>9</v>
       </c>
@@ -2725,13 +2731,13 @@
       <c r="D37" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <v>1000</v>
       </c>
       <c r="H37" s="14" t="s">
@@ -2739,7 +2745,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="47"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="16">
         <v>10</v>
       </c>
@@ -2749,13 +2755,13 @@
       <c r="D38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>800</v>
       </c>
       <c r="H38" s="14" t="s">
@@ -2763,7 +2769,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="47"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="16">
         <v>11</v>
       </c>
@@ -2773,13 +2779,13 @@
       <c r="D39" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>700</v>
       </c>
       <c r="H39" s="14" t="s">
@@ -2787,7 +2793,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="48"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="16">
         <v>12</v>
       </c>
@@ -2797,13 +2803,13 @@
       <c r="D40" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>2000</v>
       </c>
       <c r="H40" s="14" t="s">
@@ -2811,16 +2817,16 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="64">
         <v>19</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="18" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -2837,10 +2843,10 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="47"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="11" t="s">
         <v>78</v>
       </c>
@@ -2855,10 +2861,10 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="11" t="s">
         <v>80</v>
       </c>
@@ -2873,10 +2879,10 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="47"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="11" t="s">
         <v>82</v>
       </c>
@@ -2891,10 +2897,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="47"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="11" t="s">
         <v>84</v>
       </c>
@@ -2909,10 +2915,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="47"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="11" t="s">
         <v>86</v>
       </c>
@@ -2927,10 +2933,10 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="47"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="11" t="s">
         <v>88</v>
       </c>
@@ -2945,10 +2951,10 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="47"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
         <v>90</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -2965,10 +2971,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="47"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="11" t="s">
         <v>93</v>
       </c>
@@ -2983,10 +2989,10 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="47"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="11" t="s">
         <v>95</v>
       </c>
@@ -3001,10 +3007,10 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="47"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="11" t="s">
         <v>97</v>
       </c>
@@ -3019,10 +3025,10 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="47"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="11" t="s">
         <v>99</v>
       </c>
@@ -3037,10 +3043,10 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="47"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E53" s="11" t="s">
@@ -3057,10 +3063,10 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="47"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="11" t="s">
         <v>78</v>
       </c>
@@ -3075,10 +3081,10 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="47"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="11" t="s">
         <v>80</v>
       </c>
@@ -3093,10 +3099,10 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="47"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="11" t="s">
         <v>82</v>
       </c>
@@ -3111,10 +3117,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="47"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="11" t="s">
         <v>84</v>
       </c>
@@ -3129,10 +3135,10 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="47"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="11" t="s">
         <v>86</v>
       </c>
@@ -3147,10 +3153,10 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="47"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="11" t="s">
         <v>88</v>
       </c>
@@ -3165,10 +3171,10 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="47"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="11" t="s">
         <v>91</v>
       </c>
@@ -3183,10 +3189,10 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="47"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="11" t="s">
         <v>93</v>
       </c>
@@ -3201,10 +3207,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="47"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="11" t="s">
         <v>95</v>
       </c>
@@ -3219,10 +3225,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="47"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="11" t="s">
         <v>97</v>
       </c>
@@ -3237,10 +3243,10 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="47"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="11" t="s">
         <v>99</v>
       </c>
@@ -3255,10 +3261,10 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="47"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E65" s="11" t="s">
@@ -3275,10 +3281,10 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="47"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="11" t="s">
         <v>78</v>
       </c>
@@ -3293,10 +3299,10 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="47"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="11" t="s">
         <v>80</v>
       </c>
@@ -3311,10 +3317,10 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="47"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="11" t="s">
         <v>82</v>
       </c>
@@ -3329,10 +3335,10 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="47"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="11" t="s">
         <v>84</v>
       </c>
@@ -3347,10 +3353,10 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="47"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="11" t="s">
         <v>86</v>
       </c>
@@ -3365,10 +3371,10 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="47"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="11" t="s">
         <v>88</v>
       </c>
@@ -3383,10 +3389,10 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="47"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="11" t="s">
         <v>91</v>
       </c>
@@ -3401,10 +3407,10 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="47"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="11" t="s">
         <v>93</v>
       </c>
@@ -3419,10 +3425,10 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="47"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="11" t="s">
         <v>95</v>
       </c>
@@ -3437,10 +3443,10 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="47"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="11" t="s">
         <v>97</v>
       </c>
@@ -3455,10 +3461,10 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="47"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="11" t="s">
         <v>99</v>
       </c>
@@ -3473,23 +3479,23 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="47"/>
-      <c r="B77" s="51">
+      <c r="A77" s="61"/>
+      <c r="B77" s="60">
         <v>20</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G77" s="24">
+      <c r="G77" s="23">
         <v>200</v>
       </c>
       <c r="H77" s="14" t="s">
@@ -3497,19 +3503,19 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="47"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="50"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G78" s="24">
+      <c r="G78" s="23">
         <v>220</v>
       </c>
       <c r="H78" s="14" t="s">
@@ -3517,19 +3523,19 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="47"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="50"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G79" s="24">
+      <c r="G79" s="23">
         <v>500</v>
       </c>
       <c r="H79" s="14" t="s">
@@ -3537,7 +3543,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="47"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="16">
         <v>21</v>
       </c>
@@ -3547,13 +3553,13 @@
       <c r="D80" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G80" s="24">
+      <c r="G80" s="23">
         <v>30</v>
       </c>
       <c r="H80" s="14" t="s">
@@ -3561,7 +3567,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="47"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="16">
         <v>22</v>
       </c>
@@ -3571,13 +3577,13 @@
       <c r="D81" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="E81" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G81" s="24">
+      <c r="G81" s="23">
         <v>2000</v>
       </c>
       <c r="H81" s="14" t="s">
@@ -3585,7 +3591,7 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="47"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="16">
         <v>23</v>
       </c>
@@ -3595,13 +3601,13 @@
       <c r="D82" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G82" s="24">
+      <c r="G82" s="23">
         <v>50</v>
       </c>
       <c r="H82" s="14" t="s">
@@ -3609,14 +3615,14 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="47"/>
-      <c r="B83" s="49">
+      <c r="A83" s="61"/>
+      <c r="B83" s="64">
         <v>24</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E83" s="17" t="s">
@@ -3625,7 +3631,7 @@
       <c r="F83" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="24">
+      <c r="G83" s="23">
         <v>330</v>
       </c>
       <c r="H83" s="14" t="s">
@@ -3633,17 +3639,17 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="47"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="24">
+      <c r="G84" s="23">
         <v>330</v>
       </c>
       <c r="H84" s="14" t="s">
@@ -3651,17 +3657,17 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="47"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="23">
         <v>330</v>
       </c>
       <c r="H85" s="14" t="s">
@@ -3669,17 +3675,17 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="47"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G86" s="24">
+      <c r="G86" s="23">
         <v>330</v>
       </c>
       <c r="H86" s="14" t="s">
@@ -3687,17 +3693,17 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="47"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="17" t="s">
         <v>146</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G87" s="24">
+      <c r="G87" s="23">
         <v>330</v>
       </c>
       <c r="H87" s="14" t="s">
@@ -3705,10 +3711,10 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="47"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50" t="s">
+      <c r="A88" s="61"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18" t="s">
         <v>148</v>
       </c>
       <c r="E88" s="17" t="s">
@@ -3717,7 +3723,7 @@
       <c r="F88" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G88" s="24">
+      <c r="G88" s="23">
         <v>330</v>
       </c>
       <c r="H88" s="14" t="s">
@@ -3725,17 +3731,17 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="47"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="17" t="s">
         <v>151</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G89" s="24">
+      <c r="G89" s="23">
         <v>330</v>
       </c>
       <c r="H89" s="14" t="s">
@@ -3743,17 +3749,17 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="47"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="23">
         <v>330</v>
       </c>
       <c r="H90" s="14" t="s">
@@ -3761,23 +3767,23 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="47"/>
-      <c r="B91" s="49">
+      <c r="A91" s="61"/>
+      <c r="B91" s="64">
         <v>25</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E91" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G91" s="24">
+      <c r="G91" s="23">
         <v>40</v>
       </c>
       <c r="H91" s="14" t="s">
@@ -3785,19 +3791,19 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="47"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="50"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G92" s="24">
+      <c r="G92" s="23">
         <v>40</v>
       </c>
       <c r="H92" s="14" t="s">
@@ -3805,19 +3811,19 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="47"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="50"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G93" s="24">
+      <c r="G93" s="23">
         <v>290</v>
       </c>
       <c r="H93" s="14" t="s">
@@ -3825,23 +3831,23 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="47"/>
-      <c r="B94" s="49">
+      <c r="A94" s="61"/>
+      <c r="B94" s="64">
         <v>26</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="18" t="s">
         <v>161</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G94" s="24">
+      <c r="G94" s="23">
         <v>100</v>
       </c>
       <c r="H94" s="14" t="s">
@@ -3849,19 +3855,19 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="47"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="50"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E95" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G95" s="24">
+      <c r="G95" s="23">
         <v>100</v>
       </c>
       <c r="H95" s="14" t="s">
@@ -3869,19 +3875,19 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="47"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="50"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="E96" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G96" s="24">
+      <c r="G96" s="23">
         <v>100</v>
       </c>
       <c r="H96" s="14" t="s">
@@ -3889,23 +3895,23 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="47"/>
-      <c r="B97" s="49">
+      <c r="A97" s="61"/>
+      <c r="B97" s="64">
         <v>27</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="18" t="s">
         <v>168</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G97" s="24">
+      <c r="G97" s="23">
         <v>100</v>
       </c>
       <c r="H97" s="14" t="s">
@@ -3913,19 +3919,19 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="47"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="50"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G98" s="24">
+      <c r="G98" s="23">
         <v>100</v>
       </c>
       <c r="H98" s="14" t="s">
@@ -3933,19 +3939,19 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="48"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="50"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G99" s="24">
+      <c r="G99" s="23">
         <v>100</v>
       </c>
       <c r="H99" s="14" t="s">
@@ -3953,16 +3959,16 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="49">
+      <c r="B100" s="64">
         <v>28</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="18" t="s">
         <v>177</v>
       </c>
       <c r="E100" s="17" t="s">
@@ -3971,7 +3977,7 @@
       <c r="F100" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G100" s="24">
+      <c r="G100" s="23">
         <v>40</v>
       </c>
       <c r="H100" s="14" t="s">
@@ -3979,17 +3985,17 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="47"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G101" s="24">
+      <c r="G101" s="23">
         <v>50</v>
       </c>
       <c r="H101" s="14" t="s">
@@ -3997,17 +4003,17 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="47"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="17" t="s">
         <v>182</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G102" s="24">
+      <c r="G102" s="23">
         <v>78</v>
       </c>
       <c r="H102" s="14" t="s">
@@ -4015,10 +4021,10 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="47"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50" t="s">
+      <c r="A103" s="61"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18" t="s">
         <v>184</v>
       </c>
       <c r="E103" s="17" t="s">
@@ -4027,7 +4033,7 @@
       <c r="F103" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G103" s="24">
+      <c r="G103" s="23">
         <v>40</v>
       </c>
       <c r="H103" s="14" t="s">
@@ -4035,17 +4041,17 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="47"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G104" s="24">
+      <c r="G104" s="23">
         <v>50</v>
       </c>
       <c r="H104" s="14" t="s">
@@ -4053,17 +4059,17 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="47"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="17" t="s">
         <v>182</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G105" s="24">
+      <c r="G105" s="23">
         <v>78</v>
       </c>
       <c r="H105" s="14" t="s">
@@ -4071,10 +4077,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="47"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50" t="s">
+      <c r="A106" s="61"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E106" s="17" t="s">
@@ -4083,7 +4089,7 @@
       <c r="F106" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G106" s="24">
+      <c r="G106" s="23">
         <v>40</v>
       </c>
       <c r="H106" s="14" t="s">
@@ -4091,17 +4097,17 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="47"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G107" s="24">
+      <c r="G107" s="23">
         <v>50</v>
       </c>
       <c r="H107" s="14" t="s">
@@ -4109,17 +4115,17 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="47"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="17" t="s">
         <v>182</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G108" s="24">
+      <c r="G108" s="23">
         <v>78</v>
       </c>
       <c r="H108" s="14" t="s">
@@ -4127,10 +4133,10 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="47"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18" t="s">
         <v>192</v>
       </c>
       <c r="E109" s="17" t="s">
@@ -4139,7 +4145,7 @@
       <c r="F109" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="G109" s="24">
+      <c r="G109" s="23">
         <v>50</v>
       </c>
       <c r="H109" s="14" t="s">
@@ -4147,17 +4153,17 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="47"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="17" t="s">
         <v>194</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G110" s="24">
+      <c r="G110" s="23">
         <v>95</v>
       </c>
       <c r="H110" s="14" t="s">
@@ -4165,10 +4171,10 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="47"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50" t="s">
+      <c r="A111" s="61"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18" t="s">
         <v>196</v>
       </c>
       <c r="E111" s="17" t="s">
@@ -4177,7 +4183,7 @@
       <c r="F111" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="23">
         <v>125</v>
       </c>
       <c r="H111" s="14" t="s">
@@ -4185,17 +4191,17 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="47"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G112" s="24">
+      <c r="G112" s="23">
         <v>200</v>
       </c>
       <c r="H112" s="14" t="s">
@@ -4203,17 +4209,17 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="47"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="17" t="s">
         <v>199</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="24">
+      <c r="G113" s="23">
         <v>225</v>
       </c>
       <c r="H113" s="14" t="s">
@@ -4221,19 +4227,19 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="47"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="50"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="18"/>
       <c r="D114" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E114" s="24" t="s">
+      <c r="E114" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G114" s="24">
+      <c r="G114" s="23">
         <v>45</v>
       </c>
       <c r="H114" s="14" t="s">
@@ -4241,19 +4247,19 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="47"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="50"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="18"/>
       <c r="D115" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E115" s="24" t="s">
+      <c r="E115" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G115" s="24">
+      <c r="G115" s="23">
         <v>100</v>
       </c>
       <c r="H115" s="14" t="s">
@@ -4261,14 +4267,14 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="47"/>
-      <c r="B116" s="49">
+      <c r="A116" s="61"/>
+      <c r="B116" s="64">
         <v>29</v>
       </c>
-      <c r="C116" s="50" t="s">
+      <c r="C116" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D116" s="50" t="s">
+      <c r="D116" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E116" s="17" t="s">
@@ -4277,7 +4283,7 @@
       <c r="F116" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G116" s="24">
+      <c r="G116" s="23">
         <v>30</v>
       </c>
       <c r="H116" s="14" t="s">
@@ -4285,17 +4291,17 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="47"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="17" t="s">
         <v>208</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G117" s="24">
+      <c r="G117" s="23">
         <v>35</v>
       </c>
       <c r="H117" s="14" t="s">
@@ -4303,17 +4309,17 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="47"/>
-      <c r="B118" s="49"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="G118" s="24">
+      <c r="G118" s="23">
         <v>42</v>
       </c>
       <c r="H118" s="14" t="s">
@@ -4321,7 +4327,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="47"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="16">
         <v>30</v>
       </c>
@@ -4331,13 +4337,13 @@
       <c r="D119" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E119" s="24" t="s">
+      <c r="E119" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G119" s="24">
+      <c r="G119" s="23">
         <v>50</v>
       </c>
       <c r="H119" s="14" t="s">
@@ -4345,7 +4351,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="47"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="16">
         <v>31</v>
       </c>
@@ -4355,13 +4361,13 @@
       <c r="D120" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E120" s="24" t="s">
+      <c r="E120" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G120" s="24">
+      <c r="G120" s="23">
         <v>3500</v>
       </c>
       <c r="H120" s="14" t="s">
@@ -4369,23 +4375,23 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="47"/>
-      <c r="B121" s="49">
+      <c r="A121" s="61"/>
+      <c r="B121" s="64">
         <v>32</v>
       </c>
-      <c r="C121" s="50" t="s">
+      <c r="C121" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E121" s="24" t="s">
+      <c r="E121" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G121" s="24">
+      <c r="G121" s="23">
         <v>1600</v>
       </c>
       <c r="H121" s="14" t="s">
@@ -4393,19 +4399,19 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="47"/>
-      <c r="B122" s="49"/>
-      <c r="C122" s="50"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="18"/>
       <c r="D122" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="E122" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G122" s="24">
+      <c r="G122" s="23">
         <v>25</v>
       </c>
       <c r="H122" s="14" t="s">
@@ -4413,19 +4419,19 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="47"/>
-      <c r="B123" s="49"/>
-      <c r="C123" s="50"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G123" s="24">
+      <c r="G123" s="23">
         <v>800</v>
       </c>
       <c r="H123" s="14" t="s">
@@ -4433,23 +4439,23 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="47"/>
-      <c r="B124" s="49">
+      <c r="A124" s="61"/>
+      <c r="B124" s="64">
         <v>33</v>
       </c>
-      <c r="C124" s="50" t="s">
+      <c r="C124" s="18" t="s">
         <v>223</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E124" s="24" t="s">
+      <c r="E124" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124" s="23">
         <v>1000</v>
       </c>
       <c r="H124" s="14" t="s">
@@ -4457,19 +4463,19 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="47"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="50"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E125" s="24" t="s">
+      <c r="E125" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G125" s="24">
+      <c r="G125" s="23">
         <v>1200</v>
       </c>
       <c r="H125" s="14" t="s">
@@ -4477,19 +4483,19 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="47"/>
-      <c r="B126" s="49"/>
-      <c r="C126" s="50"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="18"/>
       <c r="D126" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E126" s="24" t="s">
+      <c r="E126" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G126" s="24">
+      <c r="G126" s="23">
         <v>2400</v>
       </c>
       <c r="H126" s="14" t="s">
@@ -4497,19 +4503,19 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="47"/>
-      <c r="B127" s="49"/>
-      <c r="C127" s="50"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="E127" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G127" s="24">
+      <c r="G127" s="23">
         <v>1600</v>
       </c>
       <c r="H127" s="14" t="s">
@@ -4517,19 +4523,19 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="47"/>
-      <c r="B128" s="49"/>
-      <c r="C128" s="50"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="18"/>
       <c r="D128" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E128" s="24" t="s">
+      <c r="E128" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G128" s="24">
+      <c r="G128" s="23">
         <v>1500</v>
       </c>
       <c r="H128" s="14" t="s">
@@ -4537,14 +4543,14 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="47"/>
-      <c r="B129" s="49">
+      <c r="A129" s="61"/>
+      <c r="B129" s="64">
         <v>34</v>
       </c>
-      <c r="C129" s="50" t="s">
+      <c r="C129" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="18" t="s">
         <v>235</v>
       </c>
       <c r="E129" s="17" t="s">
@@ -4553,7 +4559,7 @@
       <c r="F129" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="G129" s="24">
+      <c r="G129" s="23">
         <v>60</v>
       </c>
       <c r="H129" s="14" t="s">
@@ -4561,17 +4567,17 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="47"/>
-      <c r="B130" s="49"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="17" t="s">
         <v>238</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G130" s="24">
+      <c r="G130" s="23">
         <v>75</v>
       </c>
       <c r="H130" s="14" t="s">
@@ -4579,10 +4585,10 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="47"/>
-      <c r="B131" s="49"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50" t="s">
+      <c r="A131" s="61"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18" t="s">
         <v>240</v>
       </c>
       <c r="E131" s="17" t="s">
@@ -4591,7 +4597,7 @@
       <c r="F131" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="G131" s="24">
+      <c r="G131" s="23">
         <v>90</v>
       </c>
       <c r="H131" s="14" t="s">
@@ -4599,17 +4605,17 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="47"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="17" t="s">
         <v>243</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G132" s="24">
+      <c r="G132" s="23">
         <v>250</v>
       </c>
       <c r="H132" s="14" t="s">
@@ -4617,14 +4623,14 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="47"/>
-      <c r="B133" s="49">
+      <c r="A133" s="61"/>
+      <c r="B133" s="64">
         <v>35</v>
       </c>
-      <c r="C133" s="50" t="s">
+      <c r="C133" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D133" s="50" t="s">
+      <c r="D133" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E133" s="17" t="s">
@@ -4633,7 +4639,7 @@
       <c r="F133" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G133" s="24">
+      <c r="G133" s="23">
         <v>600</v>
       </c>
       <c r="H133" s="14" t="s">
@@ -4641,17 +4647,17 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="47"/>
-      <c r="B134" s="49"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="17" t="s">
         <v>248</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="G134" s="24">
+      <c r="G134" s="23">
         <v>950</v>
       </c>
       <c r="H134" s="14" t="s">
@@ -4659,17 +4665,17 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="47"/>
-      <c r="B135" s="49"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="17" t="s">
         <v>250</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G135" s="24">
+      <c r="G135" s="23">
         <v>1300</v>
       </c>
       <c r="H135" s="14" t="s">
@@ -4677,17 +4683,17 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="47"/>
-      <c r="B136" s="49"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="17" t="s">
         <v>252</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G136" s="24">
+      <c r="G136" s="23">
         <v>1600</v>
       </c>
       <c r="H136" s="14" t="s">
@@ -4695,17 +4701,17 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="47"/>
-      <c r="B137" s="49"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
       <c r="E137" s="17" t="s">
         <v>254</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G137" s="24">
+      <c r="G137" s="23">
         <v>2000</v>
       </c>
       <c r="H137" s="14" t="s">
@@ -4713,17 +4719,17 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="47"/>
-      <c r="B138" s="49"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="17" t="s">
         <v>256</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G138" s="24">
+      <c r="G138" s="23">
         <v>2300</v>
       </c>
       <c r="H138" s="14" t="s">
@@ -4731,10 +4737,10 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="47"/>
-      <c r="B139" s="49"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18" t="s">
         <v>258</v>
       </c>
       <c r="E139" s="17" t="s">
@@ -4743,7 +4749,7 @@
       <c r="F139" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G139" s="24">
+      <c r="G139" s="23">
         <v>1550</v>
       </c>
       <c r="H139" s="14" t="s">
@@ -4751,17 +4757,17 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="47"/>
-      <c r="B140" s="49"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="17" t="s">
         <v>252</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G140" s="24">
+      <c r="G140" s="23">
         <v>1750</v>
       </c>
       <c r="H140" s="14" t="s">
@@ -4769,17 +4775,17 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="47"/>
-      <c r="B141" s="49"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="17" t="s">
         <v>254</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G141" s="24">
+      <c r="G141" s="23">
         <v>2150</v>
       </c>
       <c r="H141" s="14" t="s">
@@ -4787,17 +4793,17 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="47"/>
-      <c r="B142" s="49"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
       <c r="E142" s="17" t="s">
         <v>256</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G142" s="24">
+      <c r="G142" s="23">
         <v>2300</v>
       </c>
       <c r="H142" s="14" t="s">
@@ -4805,17 +4811,17 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="47"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
       <c r="E143" s="17" t="s">
         <v>263</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G143" s="24">
+      <c r="G143" s="23">
         <v>3000</v>
       </c>
       <c r="H143" s="14" t="s">
@@ -4823,17 +4829,17 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="47"/>
-      <c r="B144" s="49"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="17" t="s">
         <v>265</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G144" s="24">
+      <c r="G144" s="23">
         <v>3500</v>
       </c>
       <c r="H144" s="14" t="s">
@@ -4841,17 +4847,17 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="47"/>
-      <c r="B145" s="49"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="17" t="s">
         <v>267</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="G145" s="24">
+      <c r="G145" s="23">
         <v>5300</v>
       </c>
       <c r="H145" s="14" t="s">
@@ -4859,14 +4865,14 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="47"/>
-      <c r="B146" s="49">
+      <c r="A146" s="61"/>
+      <c r="B146" s="64">
         <v>36</v>
       </c>
-      <c r="C146" s="50" t="s">
+      <c r="C146" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="18" t="s">
         <v>270</v>
       </c>
       <c r="E146" s="17" t="s">
@@ -4875,7 +4881,7 @@
       <c r="F146" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G146" s="24">
+      <c r="G146" s="23">
         <v>2000</v>
       </c>
       <c r="H146" s="14" t="s">
@@ -4883,17 +4889,17 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="47"/>
-      <c r="B147" s="49"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
       <c r="E147" s="17" t="s">
         <v>273</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G147" s="24">
+      <c r="G147" s="23">
         <v>2200</v>
       </c>
       <c r="H147" s="14" t="s">
@@ -4901,17 +4907,17 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="47"/>
-      <c r="B148" s="49"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
+      <c r="A148" s="61"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
       <c r="E148" s="17" t="s">
         <v>275</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G148" s="24">
+      <c r="G148" s="23">
         <v>2200</v>
       </c>
       <c r="H148" s="14" t="s">
@@ -4919,17 +4925,17 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="47"/>
-      <c r="B149" s="49"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="17" t="s">
         <v>277</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G149" s="24">
+      <c r="G149" s="23">
         <v>2300</v>
       </c>
       <c r="H149" s="14" t="s">
@@ -4937,10 +4943,10 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="47"/>
-      <c r="B150" s="49"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50" t="s">
+      <c r="A150" s="61"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18" t="s">
         <v>279</v>
       </c>
       <c r="E150" s="17" t="s">
@@ -4949,7 +4955,7 @@
       <c r="F150" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="G150" s="24">
+      <c r="G150" s="23">
         <v>350</v>
       </c>
       <c r="H150" s="14" t="s">
@@ -4957,17 +4963,17 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="47"/>
-      <c r="B151" s="49"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
+      <c r="A151" s="61"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="17" t="s">
         <v>273</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G151" s="24">
+      <c r="G151" s="23">
         <v>400</v>
       </c>
       <c r="H151" s="14" t="s">
@@ -4975,17 +4981,17 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="47"/>
-      <c r="B152" s="49"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
       <c r="E152" s="17" t="s">
         <v>275</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="G152" s="24">
+      <c r="G152" s="23">
         <v>500</v>
       </c>
       <c r="H152" s="14" t="s">
@@ -4993,17 +4999,17 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="47"/>
-      <c r="B153" s="49"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
+      <c r="A153" s="61"/>
+      <c r="B153" s="64"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="17" t="s">
         <v>277</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G153" s="24">
+      <c r="G153" s="23">
         <v>550</v>
       </c>
       <c r="H153" s="14" t="s">
@@ -5011,10 +5017,10 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="47"/>
-      <c r="B154" s="49"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50" t="s">
+      <c r="A154" s="61"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18" t="s">
         <v>284</v>
       </c>
       <c r="E154" s="17" t="s">
@@ -5023,7 +5029,7 @@
       <c r="F154" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G154" s="24">
+      <c r="G154" s="23">
         <v>300</v>
       </c>
       <c r="H154" s="14" t="s">
@@ -5031,17 +5037,17 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="47"/>
-      <c r="B155" s="49"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="50"/>
+      <c r="A155" s="61"/>
+      <c r="B155" s="64"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="17" t="s">
         <v>273</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="G155" s="24">
+      <c r="G155" s="23">
         <v>350</v>
       </c>
       <c r="H155" s="14" t="s">
@@ -5049,17 +5055,17 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="47"/>
-      <c r="B156" s="49"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="64"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="17" t="s">
         <v>275</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G156" s="24">
+      <c r="G156" s="23">
         <v>400</v>
       </c>
       <c r="H156" s="14" t="s">
@@ -5067,17 +5073,17 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="47"/>
-      <c r="B157" s="49"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="50"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="64"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
       <c r="E157" s="17" t="s">
         <v>277</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G157" s="24">
+      <c r="G157" s="23">
         <v>450</v>
       </c>
       <c r="H157" s="14" t="s">
@@ -5085,7 +5091,7 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="47"/>
+      <c r="A158" s="61"/>
       <c r="B158" s="16">
         <v>37</v>
       </c>
@@ -5095,13 +5101,13 @@
       <c r="D158" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E158" s="24" t="s">
+      <c r="E158" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="G158" s="24">
+      <c r="G158" s="23">
         <v>1100</v>
       </c>
       <c r="H158" s="14" t="s">
@@ -5109,7 +5115,7 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="47"/>
+      <c r="A159" s="61"/>
       <c r="B159" s="16">
         <v>38</v>
       </c>
@@ -5119,13 +5125,13 @@
       <c r="D159" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="E159" s="24" t="s">
+      <c r="E159" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="G159" s="24">
+      <c r="G159" s="23">
         <v>50</v>
       </c>
       <c r="H159" s="14" t="s">
@@ -5133,7 +5139,7 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="47"/>
+      <c r="A160" s="61"/>
       <c r="B160" s="16">
         <v>39</v>
       </c>
@@ -5143,13 +5149,13 @@
       <c r="D160" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E160" s="24" t="s">
+      <c r="E160" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G160" s="24">
+      <c r="G160" s="23">
         <v>10</v>
       </c>
       <c r="H160" s="14" t="s">
@@ -5157,7 +5163,7 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="47"/>
+      <c r="A161" s="61"/>
       <c r="B161" s="16">
         <v>40</v>
       </c>
@@ -5167,13 +5173,13 @@
       <c r="D161" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E161" s="24" t="s">
+      <c r="E161" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="G161" s="24">
+      <c r="G161" s="23">
         <v>1400</v>
       </c>
       <c r="H161" s="14" t="s">
@@ -5181,7 +5187,7 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="48"/>
+      <c r="A162" s="65"/>
       <c r="B162" s="16">
         <v>41</v>
       </c>
@@ -5191,13 +5197,13 @@
       <c r="D162" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E162" s="24" t="s">
+      <c r="E162" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G162" s="24">
+      <c r="G162" s="23">
         <v>200</v>
       </c>
       <c r="H162" s="14" t="s">
@@ -5205,25 +5211,25 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="42">
         <v>45</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="19" t="s">
+      <c r="D163" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="E163" s="24" t="s">
+      <c r="E163" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="G163" s="24">
+      <c r="G163" s="23">
         <v>10</v>
       </c>
       <c r="H163" s="14" t="s">
@@ -5231,23 +5237,23 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="48"/>
-      <c r="B164" s="18">
+      <c r="A164" s="65"/>
+      <c r="B164" s="42">
         <v>46</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C164" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="E164" s="24" t="s">
+      <c r="E164" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="G164" s="24">
+      <c r="G164" s="23">
         <v>100</v>
       </c>
       <c r="H164" s="14" t="s">
@@ -5255,424 +5261,350 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="20"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="21"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="20"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="20"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="23"/>
-      <c r="G166" s="21"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="20"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="20"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="21"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="20"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="20"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="21"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="20"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="20"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="21"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="20"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="20"/>
-      <c r="B170" s="21"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="21"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="20"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="20"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="21"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="20"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="20"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="23"/>
-      <c r="G172" s="21"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="20"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="20"/>
-      <c r="B173" s="21"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="21"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="20"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="20"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="21"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="20"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="20"/>
-      <c r="B175" s="21"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="21"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="20"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="20"/>
-      <c r="B176" s="21"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="21"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="20"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="20"/>
-      <c r="B177" s="21"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="21"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="20"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="20"/>
-      <c r="B178" s="21"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="21"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="20"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="20"/>
-      <c r="B179" s="21"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="23"/>
-      <c r="G179" s="21"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="20"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="20"/>
-      <c r="B180" s="21"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="21"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="20"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="20"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="21"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="20"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="20"/>
-      <c r="B182" s="21"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="21"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="20"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="20"/>
-      <c r="B183" s="21"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="21"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="20"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="20"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="21"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="20"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="20"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="23"/>
-      <c r="G185" s="21"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="20"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="20"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="21"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="20"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="20"/>
-      <c r="B187" s="21"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="21"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="20"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="20"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="21"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="20"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="20"/>
-      <c r="B189" s="21"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="22"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="21"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="20"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="20"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="22"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="21"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="20"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="20"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="21"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="20"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="20"/>
-      <c r="B192" s="21"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="22"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="21"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="20"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="20"/>
-      <c r="B193" s="21"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="21"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="20"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="20"/>
-      <c r="B194" s="21"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="22"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="21"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="20"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="20"/>
-      <c r="B195" s="21"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="21"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="20"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="20"/>
-      <c r="B196" s="21"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="21"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="20"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="20"/>
-      <c r="B197" s="21"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="21"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="20"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="20"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="23"/>
-      <c r="G198" s="21"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="20"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="20"/>
-      <c r="B199" s="21"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="23"/>
-      <c r="G199" s="21"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="20"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="20"/>
-      <c r="B200" s="21"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="21"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="20"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="20"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="23"/>
-      <c r="G201" s="21"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="20"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="20"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="22"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="21"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D65:D76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="B41:B76"/>
-    <mergeCell ref="C41:C76"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D53:D64"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="B133:B145"/>
-    <mergeCell ref="C133:C145"/>
-    <mergeCell ref="D133:D138"/>
-    <mergeCell ref="D139:D145"/>
-    <mergeCell ref="A41:A99"/>
-    <mergeCell ref="A100:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B146:B157"/>
-    <mergeCell ref="C146:C157"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="B100:B115"/>
-    <mergeCell ref="C100:C115"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="H8:H9"/>
+  <mergeCells count="1">
     <mergeCell ref="A2:H6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A22:A40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5684,16 +5616,16 @@
   <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5701,118 +5633,118 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="25"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="43"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="18" t="s">
         <v>306</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>60</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -5820,59 +5752,59 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="60"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>24</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="60"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="60"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>30.41667</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="60"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>365</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -5880,14 +5812,14 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="60"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>4.3452400000000004</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -5895,14 +5827,14 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="60"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>52.142859999999999</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -5910,969 +5842,968 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="60"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>12</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="35"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="35"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="35"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="35"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="35"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="35"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="35"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="35"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="10"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="10"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="10"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="10"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="10"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="34"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="10"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="10"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="10"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="10"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="35"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="35"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="10"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="35"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="10"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="10"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="35"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="35"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="35"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="10"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="35"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="35"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="10"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="35"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="35"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="35"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="35"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="35"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="10"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="35"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="10"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="35"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="35"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="10"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="35"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="34"/>
       <c r="E124" s="10"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="35"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="10"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="35"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="34"/>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="35"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
       <c r="E128" s="10"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="35"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="34"/>
       <c r="E129" s="10"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="35"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="34"/>
       <c r="E130" s="10"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="35"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="35"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="34"/>
       <c r="E132" s="10"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="34"/>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="35"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="34"/>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="33"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="34"/>
       <c r="E136" s="10"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="34"/>
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="35"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="34"/>
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="35"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="33"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="35"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="34"/>
       <c r="E142" s="10"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="35"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="10"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="35"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="10"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="35"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="34"/>
       <c r="E145" s="10"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="35"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="34"/>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="35"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="34"/>
       <c r="E147" s="10"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="35"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="34"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="35"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="34"/>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="35"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="35"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="34"/>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
-      <c r="D152" s="27"/>
+      <c r="D152" s="26"/>
       <c r="E152" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A17"/>
     <mergeCell ref="A2:E6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
@@ -6887,429 +6818,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="43"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="18" t="s">
         <v>341</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>4467077</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="63"/>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="66"/>
       <c r="B11" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>1413774</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="66"/>
       <c r="B12" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>3053303</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="66"/>
       <c r="B13" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>323653</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="63"/>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="66"/>
       <c r="B14" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>408660</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="63"/>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="66"/>
       <c r="B15" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>25485</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="66"/>
       <c r="B16" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>132396</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="63"/>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="66"/>
       <c r="B17" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>59168</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="63"/>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="66"/>
       <c r="B18" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>102874</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="63"/>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="66"/>
       <c r="B19" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>74036</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="63"/>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="66"/>
       <c r="B20" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>248185</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="63"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="66"/>
       <c r="B21" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>70144</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="63"/>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="66"/>
       <c r="B22" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>262497</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="63"/>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="66"/>
       <c r="B23" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>3898842</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="63"/>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="66"/>
       <c r="B24" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>3355237</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="63"/>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="66"/>
       <c r="B25" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
         <v>543605</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="63"/>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="66"/>
       <c r="B26" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>2672423</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="63"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="66"/>
       <c r="B27" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>228622</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="63"/>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="66"/>
       <c r="B28" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>111066</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="63"/>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="66"/>
       <c r="B29" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="41">
         <v>312627</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="63"/>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="66"/>
       <c r="B30" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>167350</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="63"/>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="66"/>
       <c r="B31" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="41">
         <v>141565</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="63"/>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="66"/>
       <c r="B32" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>265189</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -7317,8 +7248,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A10:A32"/>
+  <mergeCells count="6">
     <mergeCell ref="A2:E6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -7335,190 +7265,190 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A17"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="43"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="63"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="63"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="63"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="39" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="63"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="63"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="63"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="38" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7540,281 +7470,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75"/>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A2" s="44" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15"/>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A2" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A7" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A8" s="43"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="60" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A8" s="44"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="18" t="s">
         <v>323</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>2.418E-2</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="18"/>
       <c r="B10" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>0.63014000000000003</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="18"/>
       <c r="B11" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>0.74507000000000001</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="18"/>
       <c r="B12" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>0.74507000000000001</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="18"/>
       <c r="B13" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>0.74507000000000001</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="18"/>
       <c r="B14" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>0.74507000000000001</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="18"/>
       <c r="B15" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>0.74507000000000001</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="18"/>
       <c r="B16" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>0.86197999999999997</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="60"/>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="18"/>
       <c r="B17" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>8.5209999999999994E-2</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="18"/>
       <c r="B18" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>0.37847999999999998</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="18"/>
       <c r="B19" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>0.68364000000000003</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="18"/>
       <c r="B20" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>0.34083000000000002</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="18"/>
       <c r="B21" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>0.30020999999999998</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A9:A21"/>
+  <mergeCells count="6">
     <mergeCell ref="A2:E6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
